--- a/biology/Botanique/Riz_paddy/Riz_paddy.xlsx
+++ b/biology/Botanique/Riz_paddy/Riz_paddy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le riz paddy (terme venant du malais padi, qui désigne le riz sur pied dans la rizière) est à l'état brut, c'est un « riz non décortiqué » qui a conservé sa balle après battage[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le riz paddy (terme venant du malais padi, qui désigne le riz sur pied dans la rizière) est à l'état brut, c'est un « riz non décortiqué » qui a conservé sa balle après battage. 
 Généralement, 1 kilogramme de riz « paddy » donne 750 g de riz complet et 600 g de riz blanc.
-Le riz paddy est utilisé en aquariophilie : on fait macérer des grains dans l'eau pour développer des infusoires pour la nourriture des alevins[2].
+Le riz paddy est utilisé en aquariophilie : on fait macérer des grains dans l'eau pour développer des infusoires pour la nourriture des alevins.
 </t>
         </is>
       </c>
